--- a/Template/Шаблон для загрузки оргструктуры в DirectumRX.xlsx
+++ b/Template/Шаблон для загрузки оргструктуры в DirectumRX.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ImportUtil\Core\rx-util-importdata-net-core\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ImportData\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Подразделения!$A$1:$K$8</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Сотрудники!$A$1:$V$14</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" refMode="R1C1"/>
 </workbook>
 </file>
 
@@ -605,7 +605,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1176,13 +1176,11 @@
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="H3" s="6"/>
       <c r="U3" s="7"/>
       <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:W3"/>
@@ -1196,8 +1194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1294,7 +1292,7 @@
   <dimension ref="A1:V15"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A2" sqref="A2:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
